--- a/8_2_Flyback_MATLAB/poles.xlsx
+++ b/8_2_Flyback_MATLAB/poles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\EEE\Year 3\ELEC60024 Power Electronics\coursework\ATX_PowerSupply\8_2_Flyback_MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B852BC-6BA1-4B7A-952A-EAC7CE956593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A1F953-D160-4E41-945F-F1F3CA1AC69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{6A268F2B-A05A-4363-B832-B0118CE55188}"/>
+    <workbookView xWindow="-33017" yWindow="-2031" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{6A268F2B-A05A-4363-B832-B0118CE55188}"/>
   </bookViews>
   <sheets>
     <sheet name="poles" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -128,12 +128,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,11 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +553,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,27 +1082,27 @@
       <c r="I12">
         <v>40</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <f t="shared" si="4"/>
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <f t="shared" si="5"/>
         <v>0.24299999999999999</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <f t="shared" si="6"/>
         <v>0.35699999999999998</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="4">
         <f t="shared" si="8"/>
         <v>1.07</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="4">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
@@ -1132,27 +1139,27 @@
       <c r="I13">
         <v>30</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <f t="shared" si="4"/>
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="4">
         <f t="shared" si="5"/>
         <v>0.32400000000000001</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="4">
         <f t="shared" si="6"/>
         <v>0.47599999999999998</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="4">
         <f t="shared" si="7"/>
         <v>33.299999999999997</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="4">
         <f t="shared" si="8"/>
         <v>1.43</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="4">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
@@ -1189,27 +1196,27 @@
       <c r="I14">
         <v>20</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <f t="shared" si="4"/>
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="4">
         <f t="shared" si="5"/>
         <v>0.48499999999999999</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="4">
         <f t="shared" si="6"/>
         <v>0.71399999999999997</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="4">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="4">
         <f t="shared" si="8"/>
         <v>2.14</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="4">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
@@ -1246,27 +1253,27 @@
       <c r="I15">
         <v>10</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <f t="shared" si="4"/>
         <v>0.17100000000000001</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <f t="shared" si="5"/>
         <v>0.97099999999999997</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="4">
         <f t="shared" si="6"/>
         <v>1.43</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="4">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="4">
         <f t="shared" si="8"/>
         <v>4.29</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="4">
         <f t="shared" si="9"/>
         <v>120</v>
       </c>
